--- a/InputFiles/ICDC/TC03_ICDC_COTC007B_Breed-BerMountDog.xlsx
+++ b/InputFiles/ICDC/TC03_ICDC_COTC007B_Breed-BerMountDog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\ICDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0DBDD6-79DE-4A91-919F-9252C11C25B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5F54FF-50EF-4920-AA63-17B527605EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -74,18 +74,18 @@
     diag.disease_term AS "Diagnosis",
     diag.stage_of_disease AS "Stage Of Disease",
     CASE 
-    WHEN dmg.patient_age_at_enrollment = CAST(dmg.patient_age_at_enrollment AS INT) 
-    THEN CAST(CAST(dmg.patient_age_at_enrollment AS INT) AS TEXT)
-    ELSE CAST(dmg.patient_age_at_enrollment AS TEXT)
-END AS "Age", 
+        WHEN dmg.patient_age_at_enrollment = CAST(dmg.patient_age_at_enrollment AS INT) 
+        THEN CAST(CAST(dmg.patient_age_at_enrollment AS INT) AS TEXT)
+        ELSE CAST(dmg.patient_age_at_enrollment AS TEXT)
+    END AS "Age", 
     COALESCE(TRIM(dmg.sex), '') AS "Sex",   
     COALESCE(dmg.neutered_indicator, '') AS "Neutered Status",  
     COALESCE(
-    CASE 
-        WHEN dmg.weight = CAST(dmg.weight AS INT) THEN TRIM(CAST(dmg.weight AS TEXT), '.0')
-        ELSE CAST(ROUND(dmg.weight, 1) AS TEXT)
-    END, 
-'') AS "Weight (kg)",        
+         CASE 
+            WHEN dmg.weight = CAST(dmg.weight AS INT) THEN CAST(CAST(ROUND(dmg.weight, 0) AS INT) AS TEXT) 
+            ELSE dmg.weight 
+        END, 
+    '') AS "Weight (kg)",                 
     COALESCE(diag.best_response, '') AS "Response to Treatment",  
     COALESCE(coh.cohort_description, '') AS "Cohort"  
 FROM 
@@ -96,58 +96,16 @@
     df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
 JOIN 
     df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
-JOIN 
+LEFT JOIN 
     df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
-JOIN 
-    df_program p ON st."program.program_acronym" = p.program_acronym
-JOIN 
-    df_sample smp ON smp."case.case_record_id" = c.case_record_id
-JOIN 
-    df_publication pub ON pub."study.clinical_study_designation" = st.clinical_study_designation
-LEFT JOIN 
-    df_case_file cf ON cf."sample.sample_id" = smp.sample_id
-LEFT JOIN 
-    df_registration reg ON reg."case.case_record_id" = c.case_record_id
-LEFT JOIN 
-    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
 LEFT JOIN
-    df_cohort coh ON coh."study.clinical_study_designation" = st.clinical_study_designation
+    df_cohort coh ON c."cohort.cohort_record_id" = coh.cohort_record_id
 WHERE
-    st.clinical_study_designation = 'COTC007B' AND dmg.breed = 'Bernese Mountain Dog'
+    st.clinical_study_designation = 'COTC007B' 
+    AND dmg.breed = 'Bernese Mountain Dog'
 ORDER BY 
     c.case_record_id ASC
 LIMIT 100;</t>
-  </si>
-  <si>
-    <t>SELECT
-    COUNT(DISTINCT p.program_acronym) AS "Programs",
-    COUNT(DISTINCT st.clinical_study_designation) AS "Studies",
-    COUNT(DISTINCT c.case_record_id) AS "Cases",
-    COUNT(DISTINCT smp.sample_id) AS "Samples",
-    COUNT(DISTINCT cf.file_name) AS "Case Files",         
-    COUNT(DISTINCT sf.file_name) AS "Study Files" 
-FROM 
-    df_program p
-JOIN 
-    df_study st ON p.program_acronym = st."program.program_acronym"
-JOIN 
-    df_case c ON st.clinical_study_designation = c."study.clinical_study_designation"
-JOIN 
-    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
-JOIN 
-    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
-JOIN 
-    df_sample smp ON smp."case.case_record_id" = c.case_record_id
-LEFT JOIN 
-    df_registration reg ON reg."case.case_record_id" = c.case_record_id
-LEFT JOIN 
-    df_case_file cf ON cf."sample.sample_id" = smp.sample_id
-LEFT JOIN 
-    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
-WHERE 
-    st.clinical_study_designation = 'COTC007B' AND dmg.breed = 'Bernese Mountain Dog';</t>
   </si>
   <si>
     <t>SELECT DISTINCT
@@ -179,8 +137,6 @@
     df_program p ON st."program.program_acronym" = p.program_acronym
 JOIN 
     df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
-LEFT JOIN 
-    df_registration reg ON reg."case.case_record_id" = c.case_record_id
 LEFT JOIN 
     df_case_file cf ON cf."sample.sample_id" = smp.sample_id
 LEFT JOIN 
@@ -261,8 +217,6 @@
 JOIN 
     df_publication pub ON pub."study.clinical_study_designation" = st.clinical_study_designation
 LEFT JOIN 
-    df_registration reg ON reg."case.case_record_id" = c.case_record_id
-LEFT JOIN 
     df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
 WHERE
     st.clinical_study_designation = 'COTC007B' AND dmg.breed = 'Bernese Mountain Dog'
@@ -291,16 +245,32 @@
         WHEN sf.file_name LIKE '%.xlsx' THEN 'xlsx'
         ELSE 'Unknown'
     END AS "Format",
-    CASE     
-        WHEN sf.file_size &gt;= 1024 * 1024 * 1024 THEN 
-            ROUND(sf.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB' 
-        WHEN sf.file_size &gt;= 1024 * 1024 THEN 
-            ROUND(sf.file_size / (1024.0 * 1024.0), 2) || ' MB' 
-        WHEN sf.file_size &gt;= 1024 THEN 
-            ROUND(sf.file_size / 1024.0, 2) || ' KB' 
-        ELSE 
-            ROUND(sf.file_size, 2) || ' Bytes' 
-    END AS "Size",
+      CASE     
+    WHEN sf.file_size &gt;= 1024 * 1024 * 1024 THEN 
+        CASE 
+            WHEN ROUND(sf.file_size / (1024.0 * 1024.0 * 1024.0), 2) = CAST(ROUND(sf.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) 
+            THEN CAST(CAST(ROUND(sf.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' GB'
+            ELSE ROUND(sf.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
+        END
+    WHEN sf.file_size &gt;= 1024 * 1024 THEN 
+        CASE 
+            WHEN ROUND(sf.file_size / (1024.0 * 1024.0), 2) = CAST(ROUND(sf.file_size / (1024.0 * 1024.0), 0) AS INT) 
+            THEN CAST(CAST(ROUND(sf.file_size / (1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' MB'
+            ELSE ROUND(sf.file_size / (1024.0 * 1024.0), 2) || ' MB'
+        END
+    WHEN sf.file_size &gt;= 1024 THEN 
+        CASE 
+            WHEN ROUND(sf.file_size / 1024.0, 2) = CAST(ROUND(sf.file_size / 1024.0, 0) AS INT) 
+            THEN CAST(CAST(ROUND(sf.file_size / 1024.0, 0) AS INT) AS TEXT) || ' KB'
+            ELSE ROUND(sf.file_size / 1024.0, 2) || ' KB'
+        END
+    ELSE 
+        CASE 
+            WHEN ROUND(sf.file_size, 2) = CAST(ROUND(sf.file_size, 0) AS INT) 
+            THEN CAST(CAST(ROUND(sf.file_size, 0) AS INT) AS TEXT) || ' Bytes'
+            ELSE ROUND(sf.file_size, 2) || ' Bytes'
+        END
+END AS "Size",
     st.clinical_study_designation AS "Study Code"
 FROM 
     df_case_file cf
@@ -320,8 +290,6 @@
     df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
 JOIN 
     df_publication pub ON pub."study.clinical_study_designation" = st.clinical_study_designation
-LEFT JOIN 
-    df_registration reg ON reg."case.case_record_id" = c.case_record_id
 LEFT JOIN 
     df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
 WHERE
@@ -330,21 +298,39 @@
     sf.file_name ASC
 LIMIT 100;</t>
   </si>
+  <si>
+    <t>SELECT
+    COUNT(DISTINCT p.program_acronym) AS "Programs",
+    COUNT(DISTINCT st.clinical_study_designation) AS "Studies",
+    COUNT(DISTINCT c.case_record_id) AS "Cases",
+    COUNT(DISTINCT smp.sample_id) AS "Samples",
+    COUNT(cf.file_name) AS "Case Files",         
+    COUNT(DISTINCT sf.file_name) AS "Study Files"
+FROM 
+    df_program p
+JOIN 
+    df_study st ON p.program_acronym = st."program.program_acronym"
+JOIN 
+    df_case c ON st.clinical_study_designation = c."study.clinical_study_designation"
+JOIN 
+    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
+LEFT JOIN 
+    df_sample smp ON smp."case.case_record_id" = c.case_record_id
+LEFT JOIN 
+    df_case_file cf ON cf."sample.sample_id" = smp.sample_id
+LEFT JOIN 
+    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
+WHERE 
+    st.clinical_study_designation = 'COTC007B' AND dmg.breed = 'Bernese Mountain Dog';</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -397,14 +383,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -730,7 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -763,11 +746,11 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -781,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -790,7 +773,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -799,7 +782,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -807,7 +790,7 @@
       <c r="C6" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
